--- a/Légitársaságok/BeniAir.xlsx
+++ b/Légitársaságok/BeniAir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\GitHub\Fight-Reservation\Légitársaságok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE9464D-84BF-48EC-A5EF-AA7A51A83CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB240F7-DBF8-4B7F-85C6-0E6A715D90A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{BC9EE2EA-6D80-44FF-B91E-5AF6D312ED57}"/>
+    <workbookView xWindow="4230" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{BC9EE2EA-6D80-44FF-B91E-5AF6D312ED57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -78,12 +78,21 @@
   </si>
   <si>
     <t>MXP</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,15 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D5A2F-6776-4AC0-A3ED-B3DB45C77F74}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -446,13 +459,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,13 +479,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>15000</v>
       </c>
+      <c r="F2" s="1">
+        <v>45626.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -474,13 +499,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>30000</v>
       </c>
+      <c r="F3" s="1">
+        <v>45672.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -488,13 +519,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12000</v>
       </c>
+      <c r="F4" s="1">
+        <v>45650.833333333336</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -502,13 +539,20 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>25000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45626.416666666664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>